--- a/data/evaluation/evaluation_HaSharon_Summer_Peppers.xlsx
+++ b/data/evaluation/evaluation_HaSharon_Summer_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.7856481919653</v>
+        <v>474.5946724995101</v>
       </c>
       <c r="C4" t="n">
-        <v>461369.9658093769</v>
+        <v>447450.7723835612</v>
       </c>
       <c r="D4" t="n">
-        <v>679.2421996676715</v>
+        <v>668.9176125529669</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1595875224184466</v>
+        <v>-0.1246036174943592</v>
       </c>
     </row>
     <row r="5">
